--- a/datasets/property_inventory_2017.xlsx
+++ b/datasets/property_inventory_2017.xlsx
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" name="Q_COUNT_COUNCIL_PMA_OWNERSHIP_TYPE" vbProcedure="false">'PMA Summary by Ownership Type'!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" name="Q_COUNT_COUNCIL_PMA_STATUS" vbProcedure="false">'PMA Summary by Status'!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Annual PMA Report 2017'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Annual PMA Report 2017'!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -398,7 +399,7 @@
     <t xml:space="preserve">1500 W Nickerson St</t>
   </si>
   <si>
-    <t xml:space="preserve"> Industrial General1</t>
+    <t xml:space="preserve">Industrial General1</t>
   </si>
   <si>
     <t xml:space="preserve">40% Steep Slope Archaelogical Buffer Liquefaction Zone</t>
@@ -7590,7 +7591,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7649,6 +7650,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -7822,25 +7827,25 @@
   </sheetPr>
   <dimension ref="A1:N1193"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G171" activeCellId="0" sqref="G171"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B490" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="2" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="85.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="83.9642857142857"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7909,10 +7914,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -7951,10 +7956,10 @@
       <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -7993,7 +7998,7 @@
       <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="12"/>
@@ -8033,10 +8038,10 @@
       <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -8075,10 +8080,10 @@
       <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -8117,10 +8122,10 @@
       <c r="G7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -8159,10 +8164,10 @@
       <c r="G8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -8202,7 +8207,7 @@
       <c r="H9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -8241,10 +8246,10 @@
       <c r="G10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -8283,10 +8288,10 @@
       <c r="G11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -8323,10 +8328,10 @@
       <c r="G12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -8367,10 +8372,10 @@
       <c r="G13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -8409,10 +8414,10 @@
       <c r="G14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -8451,7 +8456,7 @@
       <c r="G15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
         <v>80</v>
@@ -8489,7 +8494,7 @@
       <c r="G16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="12"/>
@@ -8527,7 +8532,7 @@
       <c r="G17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I17" s="12"/>
@@ -8567,10 +8572,10 @@
       <c r="G18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J18" s="12" t="s">
@@ -8609,10 +8614,10 @@
       <c r="G19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="12" t="s">
@@ -8649,10 +8654,10 @@
       <c r="G20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="16" t="s">
         <v>99</v>
       </c>
       <c r="J20" s="12" t="s">
@@ -8689,7 +8694,7 @@
       <c r="G21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I21" s="12"/>
@@ -8729,7 +8734,7 @@
       <c r="G22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="12"/>
@@ -8767,7 +8772,7 @@
       <c r="G23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -8807,10 +8812,10 @@
       <c r="G24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="12" t="s">
@@ -8847,10 +8852,10 @@
       <c r="G25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="12" t="s">
@@ -8889,7 +8894,7 @@
       <c r="G26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="0" t="s">
         <v>66</v>
       </c>
       <c r="I26" s="12"/>
@@ -8927,10 +8932,10 @@
       <c r="G27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="16" t="s">
         <v>121</v>
       </c>
       <c r="J27" s="12" t="s">
@@ -8967,10 +8972,10 @@
       <c r="G28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="16" t="s">
         <v>125</v>
       </c>
       <c r="J28" s="12" t="s">
@@ -9009,7 +9014,7 @@
       <c r="G29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="0" t="s">
         <v>129</v>
       </c>
       <c r="I29" s="12"/>
@@ -9049,7 +9054,7 @@
       <c r="G30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="0" t="s">
         <v>66</v>
       </c>
       <c r="I30" s="12"/>
@@ -9067,7 +9072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
@@ -9089,10 +9094,10 @@
       <c r="G31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="16" t="s">
         <v>137</v>
       </c>
       <c r="J31" s="12" t="s">
@@ -9131,7 +9136,7 @@
       <c r="G32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I32" s="12"/>
@@ -9169,7 +9174,7 @@
       <c r="G33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I33" s="12"/>
@@ -9209,7 +9214,7 @@
       <c r="G34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="12"/>
@@ -9225,7 +9230,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>14</v>
       </c>
@@ -9247,7 +9252,7 @@
       <c r="G35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="0"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12" t="s">
         <v>102</v>
@@ -9283,10 +9288,10 @@
       <c r="G36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>125</v>
       </c>
       <c r="J36" s="12" t="s">
@@ -9323,7 +9328,7 @@
       <c r="G37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I37" s="12"/>
@@ -9363,7 +9368,7 @@
       <c r="G38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I38" s="12"/>
@@ -9403,7 +9408,7 @@
       <c r="G39" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I39" s="12"/>
@@ -9419,7 +9424,7 @@
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>14</v>
       </c>
@@ -9441,7 +9446,7 @@
       <c r="G40" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="0"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12" t="s">
         <v>85</v>
@@ -9477,7 +9482,7 @@
       <c r="G41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="12"/>
@@ -9517,10 +9522,10 @@
       <c r="G42" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J42" s="12" t="s">
@@ -9557,7 +9562,7 @@
       <c r="G43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I43" s="12"/>
@@ -9595,10 +9600,10 @@
       <c r="G44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J44" s="12" t="s">
@@ -9635,7 +9640,7 @@
       <c r="G45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I45" s="12"/>
@@ -9651,7 +9656,7 @@
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
         <v>14</v>
       </c>
@@ -9673,7 +9678,7 @@
       <c r="G46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="0"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12" t="s">
         <v>102</v>
@@ -9709,7 +9714,7 @@
       <c r="G47" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I47" s="12"/>
@@ -9747,7 +9752,7 @@
       <c r="G48" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="0" t="s">
         <v>177</v>
       </c>
       <c r="I48" s="12"/>
@@ -9763,7 +9768,7 @@
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>14</v>
       </c>
@@ -9785,7 +9790,7 @@
       <c r="G49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="0"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
         <v>102</v>
@@ -9821,7 +9826,7 @@
       <c r="G50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I50" s="12"/>
@@ -9859,10 +9864,10 @@
       <c r="G51" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="16" t="s">
         <v>125</v>
       </c>
       <c r="J51" s="12" t="s">
@@ -9877,7 +9882,7 @@
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>14</v>
       </c>
@@ -9899,10 +9904,10 @@
       <c r="G52" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J52" s="12" t="s">
@@ -9917,7 +9922,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>14</v>
       </c>
@@ -9939,10 +9944,10 @@
       <c r="G53" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J53" s="12" t="s">
@@ -9957,7 +9962,7 @@
       </c>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
         <v>14</v>
       </c>
@@ -9979,10 +9984,10 @@
       <c r="G54" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J54" s="12" t="s">
@@ -10019,7 +10024,7 @@
       <c r="G55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="12"/>
@@ -10035,7 +10040,7 @@
       </c>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -10057,7 +10062,7 @@
       <c r="G56" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="0"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
         <v>85</v>
@@ -10071,7 +10076,7 @@
       </c>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
         <v>14</v>
       </c>
@@ -10093,7 +10098,7 @@
       <c r="G57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="0"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12" t="s">
         <v>85</v>
@@ -10107,7 +10112,7 @@
       </c>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
         <v>14</v>
       </c>
@@ -10129,7 +10134,7 @@
       <c r="G58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="0"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12" t="s">
         <v>85</v>
@@ -10165,7 +10170,7 @@
       <c r="G59" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I59" s="12"/>
@@ -10205,7 +10210,7 @@
       <c r="G60" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I60" s="12"/>
@@ -10245,10 +10250,10 @@
       <c r="G61" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="16" t="s">
         <v>206</v>
       </c>
       <c r="J61" s="12" t="s">
@@ -10285,7 +10290,7 @@
       <c r="G62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I62" s="12"/>
@@ -10323,7 +10328,7 @@
       <c r="G63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I63" s="12"/>
@@ -10361,7 +10366,7 @@
       <c r="G64" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I64" s="12"/>
@@ -10377,7 +10382,7 @@
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
         <v>14</v>
       </c>
@@ -10399,7 +10404,7 @@
       <c r="G65" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="12"/>
+      <c r="H65" s="0"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12" t="s">
         <v>85</v>
@@ -10413,7 +10418,7 @@
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
         <v>14</v>
       </c>
@@ -10435,7 +10440,7 @@
       <c r="G66" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="12"/>
+      <c r="H66" s="0"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12" t="s">
         <v>85</v>
@@ -10449,7 +10454,7 @@
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
         <v>14</v>
       </c>
@@ -10471,7 +10476,7 @@
       <c r="G67" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="12"/>
+      <c r="H67" s="0"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12" t="s">
         <v>85</v>
@@ -10485,7 +10490,7 @@
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
         <v>14</v>
       </c>
@@ -10507,7 +10512,7 @@
       <c r="G68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="12"/>
+      <c r="H68" s="0"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12" t="s">
         <v>85</v>
@@ -10521,7 +10526,7 @@
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
         <v>14</v>
       </c>
@@ -10543,7 +10548,7 @@
       <c r="G69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="12"/>
+      <c r="H69" s="0"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12" t="s">
         <v>85</v>
@@ -10557,7 +10562,7 @@
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
         <v>14</v>
       </c>
@@ -10579,7 +10584,7 @@
       <c r="G70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="0"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12" t="s">
         <v>85</v>
@@ -10593,7 +10598,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
         <v>14</v>
       </c>
@@ -10615,7 +10620,7 @@
       <c r="G71" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="12"/>
+      <c r="H71" s="0"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12" t="s">
         <v>85</v>
@@ -10651,7 +10656,7 @@
       <c r="G72" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="12"/>
+      <c r="H72" s="0"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12" t="s">
         <v>85</v>
@@ -10665,7 +10670,7 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
         <v>14</v>
       </c>
@@ -10687,7 +10692,7 @@
       <c r="G73" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="12"/>
+      <c r="H73" s="0"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12" t="s">
         <v>85</v>
@@ -10701,7 +10706,7 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
         <v>14</v>
       </c>
@@ -10723,7 +10728,7 @@
       <c r="G74" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="12"/>
+      <c r="H74" s="0"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12" t="s">
         <v>85</v>
@@ -10737,7 +10742,7 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
         <v>14</v>
       </c>
@@ -10759,7 +10764,7 @@
       <c r="G75" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="0"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12" t="s">
         <v>85</v>
@@ -10773,7 +10778,7 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
         <v>14</v>
       </c>
@@ -10795,7 +10800,7 @@
       <c r="G76" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="0"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12" t="s">
         <v>85</v>
@@ -10809,7 +10814,7 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
         <v>14</v>
       </c>
@@ -10831,7 +10836,7 @@
       <c r="G77" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="0"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12" t="s">
         <v>85</v>
@@ -10845,7 +10850,7 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
         <v>14</v>
       </c>
@@ -10867,7 +10872,7 @@
       <c r="G78" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="0"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12" t="s">
         <v>85</v>
@@ -10881,7 +10886,7 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
         <v>14</v>
       </c>
@@ -10903,7 +10908,7 @@
       <c r="G79" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="0"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12" t="s">
         <v>85</v>
@@ -10917,7 +10922,7 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
         <v>14</v>
       </c>
@@ -10939,7 +10944,7 @@
       <c r="G80" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="12"/>
+      <c r="H80" s="0"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12" t="s">
         <v>85</v>
@@ -10953,7 +10958,7 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
         <v>14</v>
       </c>
@@ -10975,7 +10980,7 @@
       <c r="G81" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="12"/>
+      <c r="H81" s="0"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12" t="s">
         <v>85</v>
@@ -10989,7 +10994,7 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
         <v>14</v>
       </c>
@@ -11011,7 +11016,7 @@
       <c r="G82" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="12"/>
+      <c r="H82" s="0"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12" t="s">
         <v>37</v>
@@ -11025,7 +11030,7 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
         <v>14</v>
       </c>
@@ -11047,7 +11052,7 @@
       <c r="G83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="0"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12" t="s">
         <v>85</v>
@@ -11061,7 +11066,7 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
         <v>14</v>
       </c>
@@ -11083,7 +11088,7 @@
       <c r="G84" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="12"/>
+      <c r="H84" s="0"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12" t="s">
         <v>85</v>
@@ -11097,7 +11102,7 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
         <v>14</v>
       </c>
@@ -11119,7 +11124,7 @@
       <c r="G85" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="12"/>
+      <c r="H85" s="0"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12" t="s">
         <v>85</v>
@@ -11133,7 +11138,7 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
         <v>14</v>
       </c>
@@ -11155,7 +11160,7 @@
       <c r="G86" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H86" s="12"/>
+      <c r="H86" s="0"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12" t="s">
         <v>85</v>
@@ -11169,7 +11174,7 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>14</v>
       </c>
@@ -11191,7 +11196,7 @@
       <c r="G87" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="12"/>
+      <c r="H87" s="0"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12" t="s">
         <v>21</v>
@@ -11205,7 +11210,7 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>14</v>
       </c>
@@ -11227,7 +11232,7 @@
       <c r="G88" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="12"/>
+      <c r="H88" s="0"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12" t="s">
         <v>85</v>
@@ -11241,7 +11246,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>14</v>
       </c>
@@ -11263,7 +11268,7 @@
       <c r="G89" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="0"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12" t="s">
         <v>85</v>
@@ -11277,7 +11282,7 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>14</v>
       </c>
@@ -11299,7 +11304,7 @@
       <c r="G90" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H90" s="12"/>
+      <c r="H90" s="0"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12" t="s">
         <v>85</v>
@@ -11313,7 +11318,7 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>14</v>
       </c>
@@ -11335,7 +11340,7 @@
       <c r="G91" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H91" s="12"/>
+      <c r="H91" s="0"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12" t="s">
         <v>85</v>
@@ -11349,7 +11354,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>14</v>
       </c>
@@ -11371,7 +11376,7 @@
       <c r="G92" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H92" s="12"/>
+      <c r="H92" s="0"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12" t="s">
         <v>85</v>
@@ -11385,7 +11390,7 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
         <v>14</v>
       </c>
@@ -11407,7 +11412,7 @@
       <c r="G93" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="0"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12" t="s">
         <v>85</v>
@@ -11421,7 +11426,7 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
         <v>14</v>
       </c>
@@ -11443,7 +11448,7 @@
       <c r="G94" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="12"/>
+      <c r="H94" s="0"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12" t="s">
         <v>85</v>
@@ -11457,7 +11462,7 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
         <v>14</v>
       </c>
@@ -11479,7 +11484,7 @@
       <c r="G95" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="0"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12" t="s">
         <v>85</v>
@@ -11493,7 +11498,7 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
         <v>14</v>
       </c>
@@ -11515,7 +11520,7 @@
       <c r="G96" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H96" s="12"/>
+      <c r="H96" s="0"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12" t="s">
         <v>85</v>
@@ -11529,7 +11534,7 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
         <v>14</v>
       </c>
@@ -11551,7 +11556,7 @@
       <c r="G97" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H97" s="12"/>
+      <c r="H97" s="0"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12" t="s">
         <v>85</v>
@@ -11565,7 +11570,7 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
         <v>14</v>
       </c>
@@ -11587,7 +11592,7 @@
       <c r="G98" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="12"/>
+      <c r="H98" s="0"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12" t="s">
         <v>85</v>
@@ -11601,7 +11606,7 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
         <v>14</v>
       </c>
@@ -11623,7 +11628,7 @@
       <c r="G99" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="0"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12" t="s">
         <v>85</v>
@@ -11637,7 +11642,7 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
         <v>14</v>
       </c>
@@ -11659,7 +11664,7 @@
       <c r="G100" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H100" s="12"/>
+      <c r="H100" s="0"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12" t="s">
         <v>85</v>
@@ -11673,7 +11678,7 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>14</v>
       </c>
@@ -11695,7 +11700,7 @@
       <c r="G101" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="0"/>
       <c r="I101" s="12"/>
       <c r="J101" s="12" t="s">
         <v>85</v>
@@ -11709,7 +11714,7 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
         <v>14</v>
       </c>
@@ -11731,7 +11736,7 @@
       <c r="G102" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H102" s="12"/>
+      <c r="H102" s="0"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12" t="s">
         <v>85</v>
@@ -11745,7 +11750,7 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>14</v>
       </c>
@@ -11767,7 +11772,7 @@
       <c r="G103" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H103" s="12"/>
+      <c r="H103" s="0"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12" t="s">
         <v>85</v>
@@ -11781,7 +11786,7 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
         <v>14</v>
       </c>
@@ -11803,7 +11808,7 @@
       <c r="G104" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="12"/>
+      <c r="H104" s="0"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12" t="s">
         <v>85</v>
@@ -11817,7 +11822,7 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
         <v>14</v>
       </c>
@@ -11839,7 +11844,7 @@
       <c r="G105" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="12"/>
+      <c r="H105" s="0"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12" t="s">
         <v>85</v>
@@ -11853,7 +11858,7 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
         <v>14</v>
       </c>
@@ -11875,7 +11880,7 @@
       <c r="G106" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H106" s="12"/>
+      <c r="H106" s="0"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12" t="s">
         <v>85</v>
@@ -11889,7 +11894,7 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
         <v>14</v>
       </c>
@@ -11911,7 +11916,7 @@
       <c r="G107" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="0"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12" t="s">
         <v>85</v>
@@ -11925,7 +11930,7 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
         <v>14</v>
       </c>
@@ -11947,7 +11952,7 @@
       <c r="G108" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H108" s="12"/>
+      <c r="H108" s="0"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12" t="s">
         <v>85</v>
@@ -11961,7 +11966,7 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
         <v>14</v>
       </c>
@@ -11983,7 +11988,7 @@
       <c r="G109" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="12"/>
+      <c r="H109" s="0"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12" t="s">
         <v>85</v>
@@ -11997,7 +12002,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
         <v>14</v>
       </c>
@@ -12019,7 +12024,7 @@
       <c r="G110" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H110" s="12"/>
+      <c r="H110" s="0"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12" t="s">
         <v>85</v>
@@ -12033,7 +12038,7 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
         <v>14</v>
       </c>
@@ -12055,7 +12060,7 @@
       <c r="G111" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H111" s="12"/>
+      <c r="H111" s="0"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12" t="s">
         <v>85</v>
@@ -12069,7 +12074,7 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
         <v>14</v>
       </c>
@@ -12091,7 +12096,7 @@
       <c r="G112" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="12"/>
+      <c r="H112" s="0"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12" t="s">
         <v>85</v>
@@ -12105,7 +12110,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
         <v>14</v>
       </c>
@@ -12127,7 +12132,7 @@
       <c r="G113" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="12"/>
+      <c r="H113" s="0"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12" t="s">
         <v>85</v>
@@ -12141,7 +12146,7 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
         <v>14</v>
       </c>
@@ -12163,7 +12168,7 @@
       <c r="G114" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="12"/>
+      <c r="H114" s="0"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12" t="s">
         <v>76</v>
@@ -12179,7 +12184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
         <v>14</v>
       </c>
@@ -12201,7 +12206,7 @@
       <c r="G115" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="12"/>
+      <c r="H115" s="0"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12" t="s">
         <v>85</v>
@@ -12215,7 +12220,7 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11" t="s">
         <v>14</v>
       </c>
@@ -12237,7 +12242,7 @@
       <c r="G116" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H116" s="12"/>
+      <c r="H116" s="0"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12" t="s">
         <v>85</v>
@@ -12251,7 +12256,7 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="11" t="s">
         <v>14</v>
       </c>
@@ -12273,7 +12278,7 @@
       <c r="G117" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H117" s="12"/>
+      <c r="H117" s="0"/>
       <c r="I117" s="12"/>
       <c r="J117" s="12" t="s">
         <v>85</v>
@@ -12287,7 +12292,7 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="s">
         <v>14</v>
       </c>
@@ -12309,7 +12314,7 @@
       <c r="G118" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="12"/>
+      <c r="H118" s="0"/>
       <c r="I118" s="12"/>
       <c r="J118" s="12" t="s">
         <v>85</v>
@@ -12323,7 +12328,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="s">
         <v>14</v>
       </c>
@@ -12345,7 +12350,7 @@
       <c r="G119" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H119" s="12"/>
+      <c r="H119" s="0"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12" t="s">
         <v>85</v>
@@ -12359,7 +12364,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="s">
         <v>14</v>
       </c>
@@ -12381,7 +12386,7 @@
       <c r="G120" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="0"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12" t="s">
         <v>85</v>
@@ -12395,7 +12400,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
         <v>14</v>
       </c>
@@ -12417,7 +12422,7 @@
       <c r="G121" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="0"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12" t="s">
         <v>102</v>
@@ -12431,7 +12436,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
         <v>14</v>
       </c>
@@ -12453,7 +12458,7 @@
       <c r="G122" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H122" s="12"/>
+      <c r="H122" s="0"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12" t="s">
         <v>85</v>
@@ -12467,7 +12472,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
         <v>14</v>
       </c>
@@ -12489,7 +12494,7 @@
       <c r="G123" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="12"/>
+      <c r="H123" s="0"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12" t="s">
         <v>85</v>
@@ -12525,7 +12530,7 @@
       <c r="G124" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="0"/>
       <c r="I124" s="12"/>
       <c r="J124" s="12" t="s">
         <v>335</v>
@@ -12561,7 +12566,7 @@
       <c r="G125" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="15"/>
+      <c r="H125" s="0"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12" t="s">
         <v>341</v>
@@ -12599,10 +12604,10 @@
       <c r="G126" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="H126" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="16" t="s">
         <v>125</v>
       </c>
       <c r="J126" s="12" t="s">
@@ -12637,7 +12642,7 @@
       <c r="G127" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I127" s="12"/>
@@ -12673,7 +12678,7 @@
       <c r="G128" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="15" t="s">
+      <c r="H128" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I128" s="12"/>
@@ -12711,10 +12716,10 @@
       <c r="G129" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="15" t="s">
+      <c r="H129" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I129" s="15" t="s">
+      <c r="I129" s="16" t="s">
         <v>352</v>
       </c>
       <c r="J129" s="12" t="s">
@@ -12729,7 +12734,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
         <v>337</v>
       </c>
@@ -12751,7 +12756,7 @@
       <c r="G130" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="15" t="s">
+      <c r="H130" s="0" t="s">
         <v>355</v>
       </c>
       <c r="I130" s="12"/>
@@ -12767,7 +12772,7 @@
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
         <v>337</v>
       </c>
@@ -12789,10 +12794,10 @@
       <c r="G131" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="16" t="s">
         <v>359</v>
       </c>
       <c r="J131" s="12" t="s">
@@ -12807,7 +12812,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
         <v>337</v>
       </c>
@@ -12829,7 +12834,7 @@
       <c r="G132" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="12"/>
+      <c r="H132" s="0"/>
       <c r="I132" s="12"/>
       <c r="J132" s="12" t="s">
         <v>80</v>
@@ -12867,7 +12872,7 @@
       <c r="G133" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I133" s="12"/>
@@ -12883,7 +12888,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
         <v>337</v>
       </c>
@@ -12905,7 +12910,7 @@
       <c r="G134" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="0" t="s">
         <v>368</v>
       </c>
       <c r="I134" s="12"/>
@@ -12921,7 +12926,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
         <v>337</v>
       </c>
@@ -12943,7 +12948,7 @@
       <c r="G135" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="15" t="s">
+      <c r="H135" s="0" t="s">
         <v>368</v>
       </c>
       <c r="I135" s="12"/>
@@ -12981,7 +12986,7 @@
       <c r="G136" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I136" s="12"/>
@@ -13017,7 +13022,7 @@
       <c r="G137" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="15" t="s">
+      <c r="H137" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I137" s="12"/>
@@ -13055,10 +13060,10 @@
       <c r="G138" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H138" s="15" t="s">
+      <c r="H138" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="16" t="s">
         <v>352</v>
       </c>
       <c r="J138" s="12" t="s">
@@ -13073,7 +13078,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
         <v>337</v>
       </c>
@@ -13095,7 +13100,7 @@
       <c r="G139" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="15" t="s">
+      <c r="H139" s="0" t="s">
         <v>380</v>
       </c>
       <c r="I139" s="12"/>
@@ -13131,7 +13136,7 @@
       <c r="G140" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H140" s="15" t="s">
+      <c r="H140" s="0" t="s">
         <v>383</v>
       </c>
       <c r="I140" s="12"/>
@@ -13169,7 +13174,7 @@
       <c r="G141" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H141" s="12"/>
+      <c r="H141" s="0"/>
       <c r="I141" s="12"/>
       <c r="J141" s="12" t="s">
         <v>386</v>
@@ -13183,7 +13188,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11" t="s">
         <v>387</v>
       </c>
@@ -13205,7 +13210,7 @@
       <c r="G142" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H142" s="12"/>
+      <c r="H142" s="0"/>
       <c r="I142" s="12"/>
       <c r="J142" s="12" t="s">
         <v>80</v>
@@ -13219,7 +13224,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
         <v>387</v>
       </c>
@@ -13241,7 +13246,7 @@
       <c r="G143" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="15" t="s">
+      <c r="H143" s="0" t="s">
         <v>393</v>
       </c>
       <c r="I143" s="12"/>
@@ -13257,7 +13262,7 @@
       </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11" t="s">
         <v>387</v>
       </c>
@@ -13279,7 +13284,7 @@
       <c r="G144" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="12"/>
+      <c r="H144" s="0"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12" t="s">
         <v>21</v>
@@ -13317,10 +13322,10 @@
       <c r="G145" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H145" s="15" t="s">
+      <c r="H145" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I145" s="15" t="s">
+      <c r="I145" s="16" t="s">
         <v>125</v>
       </c>
       <c r="J145" s="12" t="s">
@@ -13359,7 +13364,7 @@
       <c r="G146" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="12"/>
+      <c r="H146" s="0"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12" t="s">
         <v>400</v>
@@ -13375,7 +13380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="11" t="s">
         <v>387</v>
       </c>
@@ -13397,7 +13402,7 @@
       <c r="G147" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="12"/>
+      <c r="H147" s="0"/>
       <c r="I147" s="12"/>
       <c r="J147" s="12" t="s">
         <v>21</v>
@@ -13413,7 +13418,7 @@
       </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11" t="s">
         <v>387</v>
       </c>
@@ -13435,7 +13440,7 @@
       <c r="G148" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H148" s="12"/>
+      <c r="H148" s="0"/>
       <c r="I148" s="12"/>
       <c r="J148" s="12" t="s">
         <v>102</v>
@@ -13471,7 +13476,7 @@
       <c r="G149" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H149" s="15" t="s">
+      <c r="H149" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I149" s="12"/>
@@ -13509,7 +13514,7 @@
       <c r="G150" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H150" s="12"/>
+      <c r="H150" s="0"/>
       <c r="I150" s="12"/>
       <c r="J150" s="12" t="s">
         <v>410</v>
@@ -13547,10 +13552,10 @@
       <c r="G151" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H151" s="15" t="s">
+      <c r="H151" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I151" s="15" t="s">
+      <c r="I151" s="16" t="s">
         <v>49</v>
       </c>
       <c r="J151" s="12" t="s">
@@ -13589,10 +13594,10 @@
       <c r="G152" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H152" s="15" t="s">
+      <c r="H152" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I152" s="15" t="s">
+      <c r="I152" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J152" s="12" t="s">
@@ -13607,7 +13612,7 @@
       </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="11" t="s">
         <v>387</v>
       </c>
@@ -13629,7 +13634,7 @@
       <c r="G153" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H153" s="12"/>
+      <c r="H153" s="0"/>
       <c r="I153" s="12"/>
       <c r="J153" s="12" t="s">
         <v>21</v>
@@ -13667,10 +13672,10 @@
       <c r="G154" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H154" s="15" t="s">
+      <c r="H154" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I154" s="15" t="s">
+      <c r="I154" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J154" s="12" t="s">
@@ -13707,10 +13712,10 @@
       <c r="G155" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H155" s="15" t="s">
+      <c r="H155" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="16" t="s">
         <v>125</v>
       </c>
       <c r="J155" s="12" t="s">
@@ -13749,10 +13754,10 @@
       <c r="G156" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H156" s="15" t="s">
+      <c r="H156" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I156" s="15" t="s">
+      <c r="I156" s="16" t="s">
         <v>49</v>
       </c>
       <c r="J156" s="12" t="s">
@@ -13769,7 +13774,7 @@
       </c>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="11" t="s">
         <v>387</v>
       </c>
@@ -13791,7 +13796,7 @@
       <c r="G157" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="15" t="s">
+      <c r="H157" s="0" t="s">
         <v>426</v>
       </c>
       <c r="I157" s="12"/>
@@ -13807,7 +13812,7 @@
       </c>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="11" t="s">
         <v>387</v>
       </c>
@@ -13829,7 +13834,7 @@
       <c r="G158" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="12"/>
+      <c r="H158" s="0"/>
       <c r="I158" s="12"/>
       <c r="J158" s="12" t="s">
         <v>178</v>
@@ -13843,7 +13848,7 @@
       </c>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="11" t="s">
         <v>387</v>
       </c>
@@ -13865,7 +13870,7 @@
       <c r="G159" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H159" s="12"/>
+      <c r="H159" s="0"/>
       <c r="I159" s="12"/>
       <c r="J159" s="12" t="s">
         <v>410</v>
@@ -13881,7 +13886,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="11" t="s">
         <v>387</v>
       </c>
@@ -13903,7 +13908,7 @@
       <c r="G160" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H160" s="12"/>
+      <c r="H160" s="0"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12" t="s">
         <v>21</v>
@@ -13917,7 +13922,7 @@
       </c>
       <c r="N160" s="11"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="11" t="s">
         <v>387</v>
       </c>
@@ -13939,7 +13944,7 @@
       <c r="G161" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H161" s="12"/>
+      <c r="H161" s="0"/>
       <c r="I161" s="12"/>
       <c r="J161" s="12" t="s">
         <v>21</v>
@@ -13955,7 +13960,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="11" t="s">
         <v>387</v>
       </c>
@@ -13977,7 +13982,7 @@
       <c r="G162" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H162" s="12"/>
+      <c r="H162" s="0"/>
       <c r="I162" s="12"/>
       <c r="J162" s="12" t="s">
         <v>178</v>
@@ -14015,7 +14020,7 @@
       <c r="G163" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="15" t="s">
+      <c r="H163" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I163" s="12"/>
@@ -14053,10 +14058,10 @@
       <c r="G164" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H164" s="15" t="s">
+      <c r="H164" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I164" s="15" t="s">
+      <c r="I164" s="16" t="s">
         <v>352</v>
       </c>
       <c r="J164" s="12" t="s">
@@ -14071,7 +14076,7 @@
       </c>
       <c r="N164" s="11"/>
     </row>
-    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="11" t="s">
         <v>387</v>
       </c>
@@ -14093,10 +14098,10 @@
       <c r="G165" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="15" t="s">
+      <c r="H165" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="I165" s="15" t="s">
+      <c r="I165" s="16" t="s">
         <v>359</v>
       </c>
       <c r="J165" s="12" t="s">
@@ -14133,7 +14138,7 @@
       <c r="G166" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H166" s="15" t="s">
+      <c r="H166" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I166" s="12"/>
@@ -49240,87 +49245,11 @@
       <c r="N1193" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" location="" display="Lowrise 3"/>
-    <hyperlink ref="H11" r:id="rId2" location="" display="Single Family 5000"/>
-    <hyperlink ref="H12" r:id="rId3" location="" display="Lowrise 1"/>
-    <hyperlink ref="H13" r:id="rId4" location="" display="Lowrise 1"/>
-    <hyperlink ref="H14" r:id="rId5" location="" display="Single Family 9600"/>
-    <hyperlink ref="H16" r:id="rId6" location="" display="Single Family 5000"/>
-    <hyperlink ref="H17" r:id="rId7" location="" display="Single Family 5000"/>
-    <hyperlink ref="H18" r:id="rId8" location="" display="Single Family 5000"/>
-    <hyperlink ref="H19" r:id="rId9" location="" display="Single Family 5000"/>
-    <hyperlink ref="H20" r:id="rId10" location="" display="Lowrise 2"/>
-    <hyperlink ref="H21" r:id="rId11" location="" display="Single Family 7200"/>
-    <hyperlink ref="H22" r:id="rId12" location="" display="Single Family 5000"/>
-    <hyperlink ref="H23" r:id="rId13" location="" display="Lowrise 2"/>
-    <hyperlink ref="H24" r:id="rId14" location="" display="Single Family 5000"/>
-    <hyperlink ref="H25" r:id="rId15" location="" display="Lowrise 2"/>
-    <hyperlink ref="H26" r:id="rId16" location="" display="Lowrise 1"/>
-    <hyperlink ref="H27" r:id="rId17" location="" display="Industrial General1"/>
-    <hyperlink ref="H28" r:id="rId18" location="" display="Single Family 7200"/>
-    <hyperlink ref="H29" r:id="rId19" location="" display="Lowrise 1"/>
-    <hyperlink ref="H30" r:id="rId20" location="" display="Lowrise 1"/>
-    <hyperlink ref="H31" r:id="rId21" location="" display="Major Institution Overlay-37-Lowrise 2"/>
-    <hyperlink ref="H32" r:id="rId22" location="" display="Lowrise 2"/>
-    <hyperlink ref="H33" r:id="rId23" location="" display="Single Family 5000"/>
-    <hyperlink ref="H34" r:id="rId24" location="" display="Single Family 5000"/>
-    <hyperlink ref="H36" r:id="rId25" location="" display="Single Family 7200"/>
-    <hyperlink ref="H37" r:id="rId26" location="" display="Single Family 5000"/>
-    <hyperlink ref="H38" r:id="rId27" location="" display="Lowrise 2"/>
-    <hyperlink ref="H39" r:id="rId28" location="" display="Single Family 5000"/>
-    <hyperlink ref="H41" r:id="rId29" location="" display="Single Family 7200"/>
-    <hyperlink ref="H42" r:id="rId30" location="" display="Single Family 5000"/>
-    <hyperlink ref="H43" r:id="rId31" location="" display="Single Family 5000"/>
-    <hyperlink ref="H44" r:id="rId32" location="" display="Single Family 5000"/>
-    <hyperlink ref="H45" r:id="rId33" location="" display="Single Family 5000"/>
-    <hyperlink ref="H47" r:id="rId34" location="" display="Single Family 5000"/>
-    <hyperlink ref="H48" r:id="rId35" location="" display="Lowrise 2"/>
-    <hyperlink ref="H50" r:id="rId36" location="" display="Single Family 5000"/>
-    <hyperlink ref="H51" r:id="rId37" location="" display="Single Family 5000"/>
-    <hyperlink ref="H52" r:id="rId38" location="" display="Lowrise 2"/>
-    <hyperlink ref="H53" r:id="rId39" location="" display="Lowrise 2"/>
-    <hyperlink ref="H54" r:id="rId40" location="" display="Lowrise 2"/>
-    <hyperlink ref="H55" r:id="rId41" location="" display="Single Family 5000"/>
-    <hyperlink ref="H59" r:id="rId42" location="" display="Single Family 7200"/>
-    <hyperlink ref="H60" r:id="rId43" location="" display="Single Family 7200"/>
-    <hyperlink ref="H61" r:id="rId44" location="" display="Single Family 5000"/>
-    <hyperlink ref="H62" r:id="rId45" location="" display="Single Family 5000"/>
-    <hyperlink ref="H63" r:id="rId46" location="" display="Single Family 5000"/>
-    <hyperlink ref="H64" r:id="rId47" location="" display="Single Family 5000"/>
-    <hyperlink ref="H126" r:id="rId48" location="" display="Single Family 5000"/>
-    <hyperlink ref="H127" r:id="rId49" location="" display="Single Family 5000"/>
-    <hyperlink ref="H128" r:id="rId50" location="" display="Single Family 7200"/>
-    <hyperlink ref="H129" r:id="rId51" location="" display="Lowrise 2"/>
-    <hyperlink ref="H130" r:id="rId52" location="" display="Lowrise 2 Residential/Commercial"/>
-    <hyperlink ref="H131" r:id="rId53" location="" display="Industrial Commercial-45"/>
-    <hyperlink ref="H133" r:id="rId54" location="" display="Single Family 5000"/>
-    <hyperlink ref="H134" r:id="rId55" location="" display="Neighborhood Commercial1-30"/>
-    <hyperlink ref="H135" r:id="rId56" location="" display="Neighborhood Commercial1-30"/>
-    <hyperlink ref="H136" r:id="rId57" location="" display="Single Family 5000"/>
-    <hyperlink ref="H137" r:id="rId58" location="" display="Lowrise 2"/>
-    <hyperlink ref="H138" r:id="rId59" location="" display="Lowrise 3"/>
-    <hyperlink ref="H139" r:id="rId60" location="" display="Neighborhood Commercial3-30"/>
-    <hyperlink ref="H140" r:id="rId61" location="" display="Lowrise 3"/>
-    <hyperlink ref="H143" r:id="rId62" location="" display="Industrial General2 Unlimited/85"/>
-    <hyperlink ref="H145" r:id="rId63" location="" display="Single Family 5000"/>
-    <hyperlink ref="H149" r:id="rId64" location="" display="Single Family 5000"/>
-    <hyperlink ref="H151" r:id="rId65" location="" display="Single Family 5000"/>
-    <hyperlink ref="H152" r:id="rId66" location="" display="Single Family 5000"/>
-    <hyperlink ref="H154" r:id="rId67" location="" display="Single Family 5000"/>
-    <hyperlink ref="H155" r:id="rId68" location="" display="Single Family 5000"/>
-    <hyperlink ref="H156" r:id="rId69" location="" display="Single Family 5000"/>
-    <hyperlink ref="H157" r:id="rId70" location="" display="Industrial General2 Unlimited/45"/>
-    <hyperlink ref="H163" r:id="rId71" location="" display="Single Family 5000"/>
-    <hyperlink ref="H164" r:id="rId72" location="" display="Lowrise 3"/>
-    <hyperlink ref="H165" r:id="rId73" location="" display="Major Institution Overlay-65-Industrial Commercial-45"/>
-    <hyperlink ref="H166" r:id="rId74" location="" display="Single Family 7200"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.440277777777778" right="0.4" top="0.6" bottom="0.320138888888889" header="0.3" footer="0.511805555555555"/>
   <pageSetup paperSize="3" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;"Calibri,Regular"(Sort by Classification, Department, and Size)&amp;RFAS\Run Date 3/31/2017: Page &amp;P of &amp;N</oddHeader>
+    <oddHeader>&amp;L(Sort by Classification, Department, and Size)&amp;RFAS\Run Date 3/31/2017: Page &amp;P of &amp;N</oddHeader>
     <oddFooter/>
   </headerFooter>
 </worksheet>
@@ -49339,210 +49268,210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="16" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="17" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>2459</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2460</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>2461</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>2462</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>2463</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <v>172</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="25" t="n">
         <f aca="false">B2/$B$9</f>
         <v>0.144295302013423</v>
       </c>
-      <c r="D2" s="25" t="n">
+      <c r="D2" s="26" t="n">
         <v>118.574334251607</v>
       </c>
-      <c r="E2" s="25" t="n">
+      <c r="E2" s="26" t="n">
         <v>5165098</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="25" t="n">
         <f aca="false">E2/$E$9</f>
         <v>0.000928995850059846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" s="23" t="n">
+      <c r="A3" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="24" t="n">
         <v>964</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="25" t="n">
         <f aca="false">B3/$B$9</f>
         <v>0.808724832214765</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="26" t="n">
         <v>127227.861019284</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="26" t="n">
         <v>5542045626</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="25" t="n">
         <f aca="false">E3/$E$9</f>
         <v>0.996793746681344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>2343</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="25" t="n">
         <f aca="false">B4/$B$9</f>
         <v>0.0218120805369128</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="26" t="n">
         <v>24.9608356290175</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="26" t="n">
         <v>1087294</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="25" t="n">
         <f aca="false">E4/$E$9</f>
         <v>0.000195560977506132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>2405</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="25" t="n">
         <f aca="false">B5/$B$9</f>
         <v>0.0100671140939597</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="26" t="n">
         <v>259.590840220386</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="26" t="n">
         <v>11307777</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="25" t="n">
         <f aca="false">E5/$E$9</f>
         <v>0.00203381966932712</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>2428</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="25" t="n">
         <f aca="false">B6/$B$9</f>
         <v>0.00251677852348993</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="26" t="n">
         <v>5.09297520661157</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="26" t="n">
         <v>221850</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="25" t="n">
         <f aca="false">E6/$E$9</f>
         <v>3.99019978586615E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>2437</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="25" t="n">
         <f aca="false">B7/$B$9</f>
         <v>0.0109060402684564</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="26" t="n">
         <v>0.956014692378329</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="26" t="n">
         <v>41644</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="25" t="n">
         <f aca="false">E7/$E$9</f>
         <v>7.49010051307685E-006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>2457</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="25" t="n">
         <f aca="false">B8/$B$9</f>
         <v>0.00167785234899329</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="26" t="n">
         <v>0.0618686868686869</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="26" t="n">
         <v>2695</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="25" t="n">
         <f aca="false">E8/$E$9</f>
         <v>4.84723390710357E-007</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>2464</v>
       </c>
-      <c r="B9" s="26" t="n">
+      <c r="B9" s="27" t="n">
         <f aca="false">SUM(B2:B8)</f>
         <v>1192</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="28" t="n">
         <f aca="false">SUM(C2:C8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="29" t="n">
         <f aca="false">SUM(D2:D8)</f>
         <v>127637.097887971</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="29" t="n">
         <f aca="false">SUM(E2:E8)</f>
         <v>5559871984</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="28" t="n">
         <f aca="false">SUM(F2:F8)</f>
         <v>1</v>
       </c>
@@ -49571,210 +49500,210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="16" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="17" width="15.7959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>2459</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2460</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>2461</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>2462</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>2465</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1539</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="25" t="n">
         <f aca="false">B2/$B$9</f>
         <v>0.014261744966443</v>
       </c>
-      <c r="D2" s="25" t="n">
+      <c r="D2" s="26" t="n">
         <v>5.12651515151515</v>
       </c>
-      <c r="E2" s="25" t="n">
+      <c r="E2" s="26" t="n">
         <v>223311</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="25" t="n">
         <f aca="false">E2/$E$9</f>
         <v>4.0164773693106E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="24" t="n">
         <v>56</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="25" t="n">
         <f aca="false">B3/$B$9</f>
         <v>0.0469798657718121</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="26" t="n">
         <v>42.244696969697</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="26" t="n">
         <v>1840179</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="25" t="n">
         <f aca="false">E3/$E$9</f>
         <v>0.000330975066565489</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="25" t="n">
         <f aca="false">B4/$B$9</f>
         <v>0.0192953020134228</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="26" t="n">
         <v>10.9851469237833</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="26" t="n">
         <v>478513</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="25" t="n">
         <f aca="false">E4/$E$9</f>
         <v>8.60654708196605E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <v>71</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="25" t="n">
         <f aca="false">B5/$B$9</f>
         <v>0.0595637583892617</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="26" t="n">
         <v>3542.71384297521</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="26" t="n">
         <v>154320615</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="25" t="n">
         <f aca="false">E5/$E$9</f>
         <v>0.0277561453652347</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="23" t="n">
+      <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="24" t="n">
         <v>1016</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="25" t="n">
         <f aca="false">B6/$B$9</f>
         <v>0.852348993288591</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="26" t="n">
         <v>124029.368365473</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="26" t="n">
         <v>5402719286</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="25" t="n">
         <f aca="false">E6/$E$9</f>
         <v>0.971734475460541</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="25" t="n">
         <f aca="false">B7/$B$9</f>
         <v>0.00251677852348993</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="26" t="n">
         <v>5.70330578512397</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="26" t="n">
         <v>248436</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="25" t="n">
         <f aca="false">E7/$E$9</f>
         <v>4.46837626324743E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>2437</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="25" t="n">
         <f aca="false">B8/$B$9</f>
         <v>0.00503355704697987</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="26" t="n">
         <v>0.956014692378329</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="26" t="n">
         <v>41644</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="25" t="n">
         <f aca="false">E8/$E$9</f>
         <v>7.49010051307685E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>2464</v>
       </c>
-      <c r="B9" s="26" t="n">
+      <c r="B9" s="27" t="n">
         <f aca="false">SUM(B2:B8)</f>
         <v>1192</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="28" t="n">
         <f aca="false">SUM(C2:C8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="29" t="n">
         <f aca="false">SUM(D2:D8)</f>
         <v>127637.097887971</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="29" t="n">
         <f aca="false">SUM(E2:E8)</f>
         <v>5559871984</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="28" t="n">
         <f aca="false">SUM(F2:F8)</f>
         <v>1</v>
       </c>
@@ -49803,254 +49732,254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="16" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="17" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>2459</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2460</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>2461</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>2462</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>2465</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="25" t="n">
         <f aca="false">B2/$B$11</f>
         <v>0.0159395973154362</v>
       </c>
-      <c r="D2" s="25" t="n">
+      <c r="D2" s="26" t="n">
         <v>58.1447658402204</v>
       </c>
-      <c r="E2" s="25" t="n">
+      <c r="E2" s="26" t="n">
         <v>2532786</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="25" t="n">
         <f aca="false">E2/$E$11</f>
         <v>0.000455547539096001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="24" t="n">
         <v>56</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="25" t="n">
         <f aca="false">B3/$B$11</f>
         <v>0.0469798657718121</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="26" t="n">
         <v>28.2865013774105</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="26" t="n">
         <v>1232160</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="25" t="n">
         <f aca="false">E3/$E$11</f>
         <v>0.000221616613394313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <v>226</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="25" t="n">
         <f aca="false">B4/$B$11</f>
         <v>0.189597315436242</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="26" t="n">
         <v>196.805555555555</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="26" t="n">
         <v>8572850</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="25" t="n">
         <f aca="false">E4/$E$11</f>
         <v>0.00154191499816374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="25" t="n">
         <f aca="false">B5/$B$11</f>
         <v>0.00251677852348993</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="26" t="n">
         <v>15.1921028466483</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="26" t="n">
         <v>661768</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="25" t="n">
         <f aca="false">E5/$E$11</f>
         <v>0.000119025762086683</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <v>455</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="25" t="n">
         <f aca="false">B6/$B$11</f>
         <v>0.381711409395973</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="26" t="n">
         <v>6466.05821854912</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="26" t="n">
         <v>281661496</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="25" t="n">
         <f aca="false">E6/$E$11</f>
         <v>0.0506597088585053</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <v>175</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="25" t="n">
         <f aca="false">B7/$B$11</f>
         <v>0.146812080536913</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="26" t="n">
         <v>13144.45</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="26" t="n">
         <v>572572242</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="25" t="n">
         <f aca="false">E7/$E$11</f>
         <v>0.102982990192531</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <v>86</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="25" t="n">
         <f aca="false">B8/$B$11</f>
         <v>0.0721476510067114</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="26" t="n">
         <v>121.852754820937</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="26" t="n">
         <v>5307906</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="25" t="n">
         <f aca="false">E8/$E$11</f>
         <v>0.000954681333540575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>2030</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="25" t="n">
         <f aca="false">B9/$B$11</f>
         <v>0.0201342281879195</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="26" t="n">
         <v>14.4489898989899</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="26" t="n">
         <v>629398</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="25" t="n">
         <f aca="false">E9/$E$11</f>
         <v>0.00011320368559047</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="24" t="n">
         <v>148</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="25" t="n">
         <f aca="false">B10/$B$11</f>
         <v>0.124161073825503</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="26" t="n">
         <v>107591.858999082</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="26" t="n">
         <v>4686701378</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="25" t="n">
         <f aca="false">E10/$E$11</f>
         <v>0.842951311017092</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>2464</v>
       </c>
-      <c r="B11" s="26" t="n">
+      <c r="B11" s="27" t="n">
         <f aca="false">SUM(B2:B10)</f>
         <v>1192</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="28" t="n">
         <f aca="false">SUM(C2:C10)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="29" t="n">
         <f aca="false">SUM(D2:D10)</f>
         <v>127637.097887971</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="29" t="n">
         <f aca="false">SUM(E2:E10)</f>
         <v>5559871984</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="28" t="n">
         <f aca="false">SUM(F2:F10)</f>
         <v>1</v>
       </c>
@@ -50079,403 +50008,403 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="30" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="30" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="16" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="31" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="31" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="17" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="17" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>2466</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>2343</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>2405</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>2428</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>2437</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>2457</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>2464</v>
       </c>
-      <c r="K1" s="0"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="34" t="n">
         <v>19</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="33" t="n">
+      <c r="F2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="34" t="n">
+      <c r="J2" s="35" t="n">
         <f aca="false">SUM(B2:I2)</f>
         <v>19</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>56</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="34" t="n">
+      <c r="J3" s="35" t="n">
         <f aca="false">SUM(B3:I3)</f>
         <v>56</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>123</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="34" t="n">
         <v>88</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="34" t="n">
+      <c r="J4" s="35" t="n">
         <f aca="false">SUM(B4:I4)</f>
         <v>227</v>
       </c>
-      <c r="K4" s="0"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="34" t="n">
+      <c r="J5" s="35" t="n">
         <f aca="false">SUM(B5:I5)</f>
         <v>6</v>
       </c>
-      <c r="K5" s="0"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="34" t="n">
         <v>445</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="33" t="n">
+      <c r="F6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="34" t="n">
+      <c r="J6" s="35" t="n">
         <f aca="false">SUM(B6:I6)</f>
         <v>448</v>
       </c>
-      <c r="K6" s="0"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <v>132</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="34" t="n">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="34" t="n">
+      <c r="J7" s="35" t="n">
         <f aca="false">SUM(B7:I7)</f>
         <v>175</v>
       </c>
-      <c r="K7" s="0"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>26</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="34" t="n">
         <v>52</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="33" t="n">
+      <c r="F8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="34" t="n">
+      <c r="J8" s="35" t="n">
         <f aca="false">SUM(B8:I8)</f>
         <v>85</v>
       </c>
-      <c r="K8" s="0"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>2030</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>24</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="33" t="n">
+      <c r="I9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="34" t="n">
+      <c r="J9" s="35" t="n">
         <f aca="false">SUM(B9:I9)</f>
         <v>24</v>
       </c>
-      <c r="K9" s="0"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>140</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="33" t="n">
+      <c r="I10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="34" t="n">
+      <c r="J10" s="35" t="n">
         <f aca="false">SUM(B10:I10)</f>
         <v>149</v>
       </c>
-      <c r="K10" s="0"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>2464</v>
       </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="35" t="n">
         <f aca="false">SUM(B2:B10)</f>
         <v>178</v>
       </c>
-      <c r="C11" s="34" t="n">
+      <c r="C11" s="35" t="n">
         <f aca="false">SUM(C2:C10)</f>
         <v>959</v>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="35" t="n">
         <f aca="false">SUM(D2:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="35" t="n">
         <f aca="false">SUM(E2:E10)</f>
         <v>19</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="F11" s="35" t="n">
         <f aca="false">SUM(F2:F10)</f>
         <v>15</v>
       </c>
-      <c r="G11" s="34" t="n">
+      <c r="G11" s="35" t="n">
         <f aca="false">SUM(G2:G10)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="34" t="n">
+      <c r="H11" s="35" t="n">
         <f aca="false">SUM(H2:H10)</f>
         <v>14</v>
       </c>
-      <c r="I11" s="34" t="n">
+      <c r="I11" s="35" t="n">
         <f aca="false">SUM(I2:I10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="26" t="n">
+      <c r="J11" s="34"/>
+      <c r="K11" s="27" t="n">
         <f aca="false">SUM(B11:J11)</f>
         <v>1189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="34" t="n">
+      <c r="J12" s="35" t="n">
         <f aca="false">SUM(J2:J11)</f>
         <v>1189</v>
       </c>
@@ -50504,403 +50433,403 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="30" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="30" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="16" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="31" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="31" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="17" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="17" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>2466</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>2343</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>2405</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>2428</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>2437</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>2457</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>2464</v>
       </c>
-      <c r="K1" s="0"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="34" t="n">
         <v>19</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="33" t="n">
+      <c r="F2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="34" t="n">
+      <c r="J2" s="35" t="n">
         <f aca="false">SUM(B2:I2)</f>
         <v>19</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>56</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="34" t="n">
+      <c r="J3" s="35" t="n">
         <f aca="false">SUM(B3:I3)</f>
         <v>56</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>122</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="34" t="n">
         <v>89</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="34" t="n">
+      <c r="J4" s="35" t="n">
         <f aca="false">SUM(B4:I4)</f>
         <v>226</v>
       </c>
-      <c r="K4" s="0"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="34" t="n">
+      <c r="J5" s="35" t="n">
         <f aca="false">SUM(B5:I5)</f>
         <v>3</v>
       </c>
-      <c r="K5" s="0"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="34" t="n">
         <v>453</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="33" t="n">
+      <c r="F6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="34" t="n">
+      <c r="J6" s="35" t="n">
         <f aca="false">SUM(B6:I6)</f>
         <v>455</v>
       </c>
-      <c r="K6" s="0"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <v>127</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="34" t="n">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="34" t="n">
+      <c r="J7" s="35" t="n">
         <f aca="false">SUM(B7:I7)</f>
         <v>175</v>
       </c>
-      <c r="K7" s="0"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>26</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="34" t="n">
         <v>53</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="33" t="n">
+      <c r="F8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="34" t="n">
+      <c r="J8" s="35" t="n">
         <f aca="false">SUM(B8:I8)</f>
         <v>86</v>
       </c>
-      <c r="K8" s="0"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>2030</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>24</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="33" t="n">
+      <c r="I9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="34" t="n">
+      <c r="J9" s="35" t="n">
         <f aca="false">SUM(B9:I9)</f>
         <v>24</v>
       </c>
-      <c r="K9" s="0"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>140</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="33" t="n">
+      <c r="I10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="34" t="n">
+      <c r="J10" s="35" t="n">
         <f aca="false">SUM(B10:I10)</f>
         <v>148</v>
       </c>
-      <c r="K10" s="0"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>2464</v>
       </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="35" t="n">
         <f aca="false">SUM(B2:B10)</f>
         <v>172</v>
       </c>
-      <c r="C11" s="34" t="n">
+      <c r="C11" s="35" t="n">
         <f aca="false">SUM(C2:C10)</f>
         <v>964</v>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="35" t="n">
         <f aca="false">SUM(D2:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="35" t="n">
         <f aca="false">SUM(E2:E10)</f>
         <v>26</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="F11" s="35" t="n">
         <f aca="false">SUM(F2:F10)</f>
         <v>12</v>
       </c>
-      <c r="G11" s="34" t="n">
+      <c r="G11" s="35" t="n">
         <f aca="false">SUM(G2:G10)</f>
         <v>3</v>
       </c>
-      <c r="H11" s="34" t="n">
+      <c r="H11" s="35" t="n">
         <f aca="false">SUM(H2:H10)</f>
         <v>13</v>
       </c>
-      <c r="I11" s="34" t="n">
+      <c r="I11" s="35" t="n">
         <f aca="false">SUM(I2:I10)</f>
         <v>2</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="26" t="n">
+      <c r="J11" s="34"/>
+      <c r="K11" s="27" t="n">
         <f aca="false">SUM(B11:J11)</f>
         <v>1192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="34" t="n">
+      <c r="J12" s="35" t="n">
         <f aca="false">SUM(J2:J11)</f>
         <v>1192</v>
       </c>
@@ -50929,405 +50858,405 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="30" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="30" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="16" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="31" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="31" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="17" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="17" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>2466</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>2343</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>2405</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>2428</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>2437</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>2457</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>2464</v>
       </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="33" t="n">
+      <c r="F2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="34" t="n">
+      <c r="J2" s="35" t="n">
         <f aca="false">SUM(B2:I2)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="34" t="n">
+      <c r="J3" s="35" t="n">
         <f aca="false">SUM(B3:I3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="34" t="n">
+      <c r="J4" s="35" t="n">
         <f aca="false">SUM(B4:I4)</f>
         <v>-1</v>
       </c>
-      <c r="K4" s="0"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>-3</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="34" t="n">
+      <c r="J5" s="35" t="n">
         <f aca="false">SUM(B5:I5)</f>
         <v>-3</v>
       </c>
-      <c r="K5" s="0"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="F6" s="33" t="n">
+      <c r="F6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="34" t="n">
+      <c r="J6" s="35" t="n">
         <f aca="false">SUM(B6:I6)</f>
         <v>7</v>
       </c>
-      <c r="K6" s="0"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <v>-5</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="34" t="n">
         <v>-3</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="34" t="n">
+      <c r="J7" s="35" t="n">
         <f aca="false">SUM(B7:I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="0"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="33" t="n">
+      <c r="F8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="34" t="n">
+      <c r="J8" s="35" t="n">
         <f aca="false">SUM(B8:I8)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="0"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>2030</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="33" t="n">
+      <c r="I9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="34" t="n">
+      <c r="J9" s="35" t="n">
         <f aca="false">SUM(B9:I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="0"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="34" t="n">
         <v>-1</v>
       </c>
-      <c r="I10" s="33" t="n">
+      <c r="I10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="34" t="n">
+      <c r="J10" s="35" t="n">
         <f aca="false">SUM(B10:I10)</f>
         <v>-1</v>
       </c>
-      <c r="K10" s="0"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>2464</v>
       </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="35" t="n">
         <f aca="false">SUM(B2:B10)</f>
         <v>-6</v>
       </c>
-      <c r="C11" s="34" t="n">
+      <c r="C11" s="35" t="n">
         <f aca="false">SUM(C2:C10)</f>
         <v>5</v>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="35" t="n">
         <f aca="false">SUM(D2:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="35" t="n">
         <f aca="false">SUM(E2:E10)</f>
         <v>7</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="F11" s="35" t="n">
         <f aca="false">SUM(F2:F10)</f>
         <v>-3</v>
       </c>
-      <c r="G11" s="34" t="n">
+      <c r="G11" s="35" t="n">
         <f aca="false">SUM(G2:G10)</f>
         <v>-1</v>
       </c>
-      <c r="H11" s="34" t="n">
+      <c r="H11" s="35" t="n">
         <f aca="false">SUM(H2:H10)</f>
         <v>-1</v>
       </c>
-      <c r="I11" s="34" t="n">
+      <c r="I11" s="35" t="n">
         <f aca="false">SUM(I2:I10)</f>
         <v>2</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="26" t="n">
+      <c r="J11" s="34"/>
+      <c r="K11" s="27" t="n">
         <f aca="false">SUM(B11:J11)</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="37"/>
-      <c r="J12" s="34" t="n">
+      <c r="I12" s="38"/>
+      <c r="J12" s="35" t="n">
         <f aca="false">SUM(J2:J11)</f>
         <v>3</v>
       </c>
